--- a/Overflow(Lirten)BackLog.xlsx
+++ b/Overflow(Lirten)BackLog.xlsx
@@ -14,14 +14,14 @@
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Models" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="145">
   <si>
     <t>Team name</t>
   </si>
@@ -328,9 +328,6 @@
     <t>projects</t>
   </si>
   <si>
-    <t>events[N/A]</t>
-  </si>
-  <si>
     <t>Life Coach</t>
   </si>
   <si>
@@ -343,12 +340,6 @@
     <t>vacancies[array of vacancies]</t>
   </si>
   <si>
-    <t>notifications [Array of notifications]</t>
-  </si>
-  <si>
-    <t>notifications [Array of notifications</t>
-  </si>
-  <si>
     <t>feedback [Array of feedbacks]</t>
   </si>
   <si>
@@ -364,27 +355,12 @@
     <t>reviews[array of reviews]</t>
   </si>
   <si>
-    <t>certificates/masterclasses [N/A]</t>
-  </si>
-  <si>
     <t>jobs [Array of vacancies]</t>
   </si>
   <si>
-    <t>Messages [Array of Messages]</t>
-  </si>
-  <si>
-    <t>Messages[Array of Messages]</t>
-  </si>
-  <si>
     <t>Job Applications</t>
   </si>
   <si>
-    <t>jobApplications [Array of job applications]</t>
-  </si>
-  <si>
-    <t>Partner[Entity]</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -412,21 +388,12 @@
     <t>Vacancy</t>
   </si>
   <si>
-    <t>application[Array of job applications]</t>
-  </si>
-  <si>
-    <t>Messages</t>
-  </si>
-  <si>
     <t>Reviews</t>
   </si>
   <si>
     <t>Feedback</t>
   </si>
   <si>
-    <t>Notification</t>
-  </si>
-  <si>
     <t>Slots</t>
   </si>
   <si>
@@ -457,39 +424,9 @@
     <t>feedback[String]</t>
   </si>
   <si>
-    <t>seen</t>
-  </si>
-  <si>
-    <t>seenAt</t>
-  </si>
-  <si>
-    <t>receiver[Dynamic Entity]</t>
-  </si>
-  <si>
-    <t>lifeCoach[Entity]</t>
-  </si>
-  <si>
     <t>booked</t>
   </si>
   <si>
-    <t>receiver[dynamic Entity]</t>
-  </si>
-  <si>
-    <t>sender[Dynamic Entity]</t>
-  </si>
-  <si>
-    <t>sentAt</t>
-  </si>
-  <si>
-    <t>readAt</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
     <t>Youssef Sherif</t>
   </si>
   <si>
@@ -518,6 +455,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Partner[Entity] [ONLY IN MEMBER}]</t>
   </si>
 </sst>
 </file>
@@ -760,11 +700,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5992,7 +5932,7 @@
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -6006,7 +5946,7 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
@@ -6018,7 +5958,7 @@
       <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
@@ -6030,7 +5970,7 @@
       <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
@@ -6042,7 +5982,7 @@
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
@@ -8758,7 +8698,7 @@
         <v>65</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -8772,13 +8712,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G2" t="str">
         <f>IF(C2=0,"Repeated"," ")</f>
@@ -8797,13 +8737,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G3" s="22" t="str">
         <f t="shared" ref="G3:G18" si="0">IF(C3=0,"Repeated"," ")</f>
@@ -8812,7 +8752,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A26" si="1">A3+1</f>
+        <f t="shared" ref="A4:A18" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -8822,13 +8762,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G4" s="22" t="str">
         <f t="shared" si="0"/>
@@ -8847,13 +8787,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G5" s="22" t="str">
         <f t="shared" si="0"/>
@@ -8872,13 +8812,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G6" s="22" t="str">
         <f t="shared" si="0"/>
@@ -8897,13 +8837,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G7" s="22" t="str">
         <f t="shared" si="0"/>
@@ -8922,13 +8862,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G8" s="22" t="str">
         <f t="shared" si="0"/>
@@ -8947,13 +8887,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G9" s="22" t="str">
         <f t="shared" si="0"/>
@@ -8972,13 +8912,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G10" s="22" t="str">
         <f t="shared" si="0"/>
@@ -8997,13 +8937,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G11" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9022,13 +8962,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G12" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9047,13 +8987,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G13" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9072,13 +9012,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G14" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9097,13 +9037,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G15" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9122,13 +9062,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G16" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9147,13 +9087,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G17" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9172,13 +9112,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G18" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9199,16 +9139,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -9225,19 +9165,19 @@
     <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
       <c r="K1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B3" t="s">
@@ -9261,15 +9201,9 @@
       <c r="H3" t="s">
         <v>92</v>
       </c>
-      <c r="I3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B4" t="s">
@@ -9293,34 +9227,22 @@
       <c r="H4" t="s">
         <v>98</v>
       </c>
-      <c r="I4" t="s">
-        <v>101</v>
-      </c>
       <c r="J4" t="s">
         <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L4" t="s">
         <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" t="s">
-        <v>107</v>
-      </c>
-      <c r="O4" t="s">
-        <v>115</v>
-      </c>
-      <c r="P4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -9335,24 +9257,18 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
         <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="J5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>109</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>86</v>
@@ -9370,183 +9286,119 @@
         <v>91</v>
       </c>
       <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
         <v>110</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="I6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
         <v>114</v>
       </c>
-      <c r="M6" t="s">
-        <v>116</v>
-      </c>
-      <c r="N6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="F11" t="s">
         <v>126</v>
-      </c>
-      <c r="J7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G13" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Overflow(Lirten)BackLog.xlsx
+++ b/Overflow(Lirten)BackLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
   <si>
     <t>Team name</t>
   </si>
@@ -250,18 +250,6 @@
     <t>As a member, I am able to read slots in life coaches' schedules</t>
   </si>
   <si>
-    <t>As a member/partner/life coach, I am able to create/read messages</t>
-  </si>
-  <si>
-    <t>As an admin, I am able to CRUD messages</t>
-  </si>
-  <si>
-    <t>As an admin, I am able to CRUD notifications</t>
-  </si>
-  <si>
-    <t>As a member/partner/life coach, I am able to read notifications</t>
-  </si>
-  <si>
     <t>As a member/partner/life coach, I am able to CRUD my profile</t>
   </si>
   <si>
@@ -274,12 +262,6 @@
     <t>As a member/admin, I am able to CRUD feedbacks</t>
   </si>
   <si>
-    <t>MODELS</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Admin</t>
   </si>
   <si>
@@ -337,9 +319,6 @@
     <t>monthlySlots [Array of slots]</t>
   </si>
   <si>
-    <t>vacancies[array of vacancies]</t>
-  </si>
-  <si>
     <t>feedback [Array of feedbacks]</t>
   </si>
   <si>
@@ -355,9 +334,6 @@
     <t>reviews[array of reviews]</t>
   </si>
   <si>
-    <t>jobs [Array of vacancies]</t>
-  </si>
-  <si>
     <t>Job Applications</t>
   </si>
   <si>
@@ -448,16 +424,43 @@
     <t>Ahmed Yasser</t>
   </si>
   <si>
-    <t>Farah</t>
-  </si>
-  <si>
     <t>Abdelatif</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Partner[Entity] [ONLY IN MEMBER}]</t>
+    <t>Entity Name</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner[Entity] </t>
+  </si>
+  <si>
+    <t>acceptedMember</t>
+  </si>
+  <si>
+    <t>STORYPOINTS</t>
+  </si>
+  <si>
+    <t>ASSIGNEE</t>
+  </si>
+  <si>
+    <t>Farah Hazem</t>
+  </si>
+  <si>
+    <t>Philip Maurice</t>
+  </si>
+  <si>
+    <t>Omar Nael</t>
+  </si>
+  <si>
+    <t>Youssef Samy</t>
+  </si>
+  <si>
+    <t>Abdellatif Emara</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -705,12 +708,56 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5914,7 +5961,7 @@
   <dimension ref="A1:F204"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8662,10 +8709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8674,11 +8721,13 @@
     <col min="2" max="2" width="57.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>61</v>
       </c>
@@ -8692,16 +8741,22 @@
         <v>63</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -8712,20 +8767,26 @@
         <v>2</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>143</v>
+        <v>127</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" t="str">
+        <v>130</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="str">
         <f>IF(C2=0,"Repeated"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
@@ -8737,22 +8798,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="22" t="str">
-        <f t="shared" ref="G3:G18" si="0">IF(C3=0,"Repeated"," ")</f>
+      <c r="H3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="22" t="str">
+        <f>IF(C3=0,"Repeated"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A18" si="1">A3+1</f>
+        <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -8762,22 +8829,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>143</v>
+        <v>127</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="22" t="str">
+        <v>132</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="22" t="str">
+        <f>IF(C4=0,"Repeated"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -8787,47 +8860,59 @@
         <v>5</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>143</v>
+        <v>129</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="22" t="str">
+      <c r="G5" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="22" t="str">
+        <f>IF(C5=0,"Repeated"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C6" s="22">
         <v>2</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>143</v>
+        <v>129</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="22" t="str">
+        <v>142</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="22" t="str">
+        <f>IF(C6=0,"Repeated"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -8837,22 +8922,25 @@
         <v>0</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="22" t="str">
+        <v>129</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="22" t="str">
+        <f>IF(C7=0,"Repeated"," ")</f>
+        <v>Repeated</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
-        <v>Repeated</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -8862,22 +8950,28 @@
         <v>2</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>143</v>
+        <v>133</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="22" t="str">
+        <v>126</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f>IF(C8=0,"Repeated"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -8887,22 +8981,25 @@
         <v>0</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="22" t="str">
+        <v>133</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="22" t="str">
+        <f>IF(C9=0,"Repeated"," ")</f>
+        <v>Repeated</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
-        <v>Repeated</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -8912,22 +9009,28 @@
         <v>2</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="22" t="str">
+      <c r="H10" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f>IF(C10=0,"Repeated"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -8937,22 +9040,25 @@
         <v>0</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="22" t="str">
+      <c r="H11" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="22" t="str">
+        <f>IF(C11=0,"Repeated"," ")</f>
+        <v>Repeated</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
-        <v>Repeated</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -8962,174 +9068,93 @@
         <v>3</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="22" t="str">
+        <v>127</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="22" t="str">
+        <f>IF(C12=0,"Repeated"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="22" t="str">
+        <f>IF(C13=0,"Repeated"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="22" t="str">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
-        <v>Repeated</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="22">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>143</v>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="22" t="str">
-        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="22" t="str">
+        <f>IF(C14=0,"Repeated"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>Repeated</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="22">
-        <v>3</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19">
-        <f>SUM(C2:C18)</f>
-        <v>36</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15">
+        <f>SUM(C2:C14)</f>
+        <v>30</v>
+      </c>
+      <c r="E15" s="22">
+        <f>SUM(E2:E14)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -9139,10 +9164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9165,243 +9190,249 @@
     <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="25"/>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="F3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>91</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="I4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
         <v>94</v>
       </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
         <v>96</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
         <v>97</v>
       </c>
-      <c r="H4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="K4" t="s">
+      <c r="B6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
         <v>104</v>
       </c>
-      <c r="L4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="D7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="E11" t="s">
         <v>118</v>
       </c>
-      <c r="J7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" t="s">
-        <v>114</v>
-      </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:L75">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="tity">
+      <formula>NOT(ISERROR(SEARCH("tity",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="rray">
+      <formula>NOT(ISERROR(SEARCH("rray",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
